--- a/similarities/split_global/harmonic_similarity_timestamps_302.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_302.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>['G:7', 'C:maj', 'C:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:05.920000'), ('0:01:56.660000', '0:02:01.420000')]</t>
+          <t>('0:00:28.300000', '0:00:38.340000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:10.780000', '0:00:16.280000'), ('0:00:00.360000', '0:00:02.440000')]</t>
+          <t>('0:01:03.700000', '0:01:06.700000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=1.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=116.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=28.3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.7</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E', 'E:7/3', 'A'], ['E', 'A', 'E']]</t>
+          <t>['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C', 'C:7', 'F'], ['C', 'F', 'C']]</t>
+          <t>['F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:20.410362', '0:00:24.856984'), ('0:00:02.612267', '0:00:17.443474')]</t>
+          <t>('0:00:21.740249', '0:00:42.394399')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:38.250000', '0:00:42.100000'), ('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:10.960000', '0:00:16.480000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=20.410362', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=21.740249</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=38.25', 'https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=10.96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D#:7/C#', 'G#:maj/C', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+          <t>('0:01:17.300000', '0:01:20.480000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:53.020000', '0:01:54.760000')]</t>
+          <t>('0:01:05.640000', '0:01:10.540000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=35.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=77.3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=113.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=65.64</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_42</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>isophonics_89</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F:7']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab:7']]</t>
+          <t>['F#', 'B', 'F#']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:41.770000', '0:00:54.590000')]</t>
+          <t>('0:00:04.250000', '0:00:09.179000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:14.910000', '0:00:20.600000')]</t>
+          <t>('0:00:14.928466', '0:00:21.522933')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-42#t=41.77']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=14.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['Bb', 'F', 'Bb']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:10.060000', '0:01:27.320000')]</t>
+          <t>('0:00:00.460000', '0:00:05.060000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
+          <t>('0:00:41.080000', '0:00:43.260000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>jaah_75</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
+          <t>jaah_70</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/G'], ['G#/C', 'D#', 'G#']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb:maj6', 'Eb:7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:min', 'A:min', 'E:min'], ['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['Eb:min7', 'Ab:7', 'Db:maj6', 'Db:7/3']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:07.840000', '0:00:11.420000'), ('0:00:51.380000', '0:00:55.820000')]</t>
+          <t>('0:00:20.840000', '0:00:26.570000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.506000', '0:00:08.175000'), ('0:00:31.138000', '0:00:34.424000')]</t>
+          <t>('0:00:35.450000', '0:00:37.750000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=7.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=51.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=20.84</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=0.506', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=31.138']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=35.45</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['B:hdim7/D', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:13.520000', '0:00:19.080000')]</t>
+          <t>('0:00:22.040000', '0:00:28.660000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:45.720000', '0:00:49.900000')]</t>
+          <t>('0:00:11.960000', '0:00:17.820000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=22.04</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=11.96</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['A', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:45.720000', '0:00:59.980000')]</t>
+          <t>('0:01:04.871315', '0:01:12.777709')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:29.220000', '0:01:03.280000')]</t>
+          <t>('0:00:01.640000', '0:00:05.110000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=64.871315</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=29.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=1.64</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>schubert-winterreise_7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C', 'D:min7', 'G:7', 'C'], ['D:min7', 'G:7', 'C', 'G:7']]</t>
+          <t>['A:min', 'B:hdim7/D', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'A:min7/C', 'D:7', 'G:maj'], ['A:min7/C', 'D:7', 'G:maj', 'D:7/C']]</t>
+          <t>['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:02.270000', '0:01:09.760000'), ('0:00:04.240000', '0:00:15.040000')]</t>
+          <t>('0:00:11.940000', '0:00:19.020000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:12.240000', '0:01:20.180000'), ('0:01:13.300000', '0:01:23.320000')]</t>
+          <t>('0:01:42.760000', '0:01:58.780000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=62.27', 'https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=4.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=11.94</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=72.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=73.3']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=102.76</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C:min', 'G:7/D', 'C:min/D#']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+          <t>('0:00:08.260000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:57.680000', '0:01:59.480000')]</t>
+          <t>('0:00:02', '0:00:04.320000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=29.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=117.68']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>isophonics_140</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:19.180000'), ('0:01:04.080000', '0:01:13.880000')]</t>
+          <t>('0:00:00.465952', '0:00:05.272756')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:08.340000', '0:00:10.040000'), ('0:00:00.380000', '0:00:07.840000')]</t>
+          <t>('0:00:16.920000', '0:00:23.900000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>['G#:dim7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
+          <t>['E:dim7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:26.987959', '0:00:33.059977')]</t>
+          <t>('0:01:16.400000', '0:01:20.720000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:17.020000', '0:00:23.280000')]</t>
+          <t>('0:00:18.700000', '0:00:20.830000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=26.987959']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=76.4</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=17.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=18.7</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'G']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:41.895260', '0:00:54.712675')]</t>
+          <t>('0:00:37.840000', '0:00:45.900000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:58.920000', '0:01:06.100000')]</t>
+          <t>('0:00:43.340000', '0:00:47.700000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=41.89526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=37.84</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=58.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=43.34</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D/3', 'G', 'D']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:17.040000', '0:00:24.520000')]</t>
+          <t>('0:00:57.251357', '0:01:13.909779')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:46.520000', '0:00:48.940000')]</t>
+          <t>('0:00:58.400000', '0:01:00.680000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:00:00.600000', '0:00:05.900000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:58.400000', '0:02:01.720000')]</t>
+          <t>('0:01:20.220000', '0:01:27.220000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=80.22</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
